--- a/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,118 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
+  <si>
+    <t>START_SCENE</t>
+  </si>
+  <si>
+    <t>CUTSCENE</t>
+  </si>
+  <si>
+    <t>jazzy_retro_battle_theme</t>
+  </si>
+  <si>
+    <t>DIALOGUE</t>
+  </si>
+  <si>
+    <t>Tanuki</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>END_DIALOGUE</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>END_SCENE</t>
+  </si>
+  <si>
+    <t>BATTLE</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>bgm_battle_a1</t>
+  </si>
+  <si>
+    <t>ENEMY</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>END_GAME</t>
+  </si>
+  <si>
+    <t>enter your name.</t>
+  </si>
+  <si>
+    <t>tanuki_mario</t>
+  </si>
+  <si>
+    <t>[prompt=name].</t>
+  </si>
+  <si>
+    <t>{name}? good name.</t>
+  </si>
+  <si>
+    <t>Also, I am completely blind. What do you look like?</t>
+  </si>
+  <si>
+    <t>[prompt=sprite].</t>
+  </si>
+  <si>
+    <t>Ah, so that is what you look like.</t>
+  </si>
+  <si>
+    <t>Also, what pronouns do you use? I use she/her/hers pronouns, by the way.</t>
+  </si>
+  <si>
+    <t>[prompt=pronoun].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got it. </t>
+  </si>
+  <si>
+    <t>Now I know everything about you. Mwahaha!</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>Changeling</t>
+  </si>
+  <si>
+    <t>Tanuki2</t>
+  </si>
+  <si>
+    <t>Ijiraq</t>
+  </si>
+  <si>
+    <t>Ijiraq2</t>
+  </si>
+  <si>
+    <t>Doppleganger (BLUE)</t>
+  </si>
+  <si>
+    <t>bgm_battle_b1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +440,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="playtest1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -120,10 +120,19 @@
     <t>Ijiraq2</t>
   </si>
   <si>
-    <t>Doppleganger (BLUE)</t>
-  </si>
-  <si>
     <t>bgm_battle_b1</t>
+  </si>
+  <si>
+    <t>Doppelganger (BLUE)</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Next Wave incoming!</t>
+  </si>
+  <si>
+    <t>Notha wave comin yo way</t>
   </si>
 </sst>
 </file>
@@ -441,16 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -721,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -729,120 +739,138 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,28 +886,28 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,36 +923,36 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,8 +976,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/playtest1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\typocrypha\Typocrypha\Assets\excel\gameflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hughe\Documents\GitHub\typocrypha\Typocrypha\Assets\excel\gameflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="playtest1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="71">
   <si>
     <t>1</t>
   </si>
@@ -90,15 +90,6 @@
     <t>Haha! I'm the Doppleganger? You are cursed now! Fight these demons!</t>
   </si>
   <si>
-    <t>WARNING. WARNING. MALICIOUS MAGIC SOURCE DETECTED.</t>
-  </si>
-  <si>
-    <t>UNLOCKING SELF-DEFENSE CAPABILITIES.</t>
-  </si>
-  <si>
-    <t>YOU MAY NOW ENTER SPELLS INTO THE TYPOCRYPHA KEYBOARD. PRESS ENTER TO CAST</t>
-  </si>
-  <si>
     <t>REGISTER</t>
   </si>
   <si>
@@ -144,15 +135,6 @@
     <t>Tanuki2</t>
   </si>
   <si>
-    <t>ENTITIES WITH PHYSICAL RESISTANCE DETECTED. USE OF ELEMENTAL ATTRIBUTES SUGGESTED</t>
-  </si>
-  <si>
-    <t>FIRE-SWORD RECOMMENDED. USE THE SPACEBAR TO ENTER A "-" SEPERATOR INTO THE TYPOCRYPHA</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>Ijiraq</t>
   </si>
   <si>
@@ -162,15 +144,9 @@
     <t>Ijiraq2</t>
   </si>
   <si>
-    <t>POWERFUL ENEMY DETECTED. CANNOT COMPREHEND TRUE FORM</t>
-  </si>
-  <si>
     <t>STOP</t>
   </si>
   <si>
-    <t>Good luck.</t>
-  </si>
-  <si>
     <t>bgm_battle_b1</t>
   </si>
   <si>
@@ -189,18 +165,6 @@
     <t>spr_vn_doppelganger_g_placeholder</t>
   </si>
   <si>
-    <t>MULTIPLE NEW THREATS DETECTED! USE OF REAL_TIME TARGETING ADVISED</t>
-  </si>
-  <si>
-    <t>SPELLS CAST BY YOU OR AN ENEMY WILL BE AUTOMATICALL REGISTED TO YOUR SPELLBOOK.</t>
-  </si>
-  <si>
-    <t>HOWEVER, THIS TYPOCRYPHA IS OUTFITTED TO CAST SPELLS THAT HAVE NOT BEEN REGISTERED</t>
-  </si>
-  <si>
-    <t>Have fun!</t>
-  </si>
-  <si>
     <t>check-stun</t>
   </si>
   <si>
@@ -219,13 +183,61 @@
     <t>The shield Icon displays how many effective hits it will take before an enemy is staggered</t>
   </si>
   <si>
-    <t>WARNING! THREAT STILL DETECTED! SPELL MUST COOL DOWN BEFORE YOU CAN CAST IT AGAIN</t>
+    <t>You may now enter Spells into the TYPOCRYPHA keyboard. Press the ENTER key to cast.</t>
+  </si>
+  <si>
+    <t>Spells cast by you and the enemy will be registered to the Spellbook automatically.</t>
+  </si>
+  <si>
+    <t>However, this TYPOCRYPHA has been outfitted to cast non-registered spells.</t>
+  </si>
+  <si>
+    <t>ALERT: MULTIPLE NEW THREATS DETECTED. USE OF REALTIME TARGETING ADVISED.</t>
+  </si>
+  <si>
+    <t>WARNING: MALICIOUS MAGIC SOURCE DETECTED.</t>
+  </si>
+  <si>
+    <t>UNLOCKING SELF-DEFENSE FUNCTIONALITY.</t>
+  </si>
+  <si>
+    <t>Spells must recharge in cooldowns before being cast again. Proceed with extreme caution.</t>
+  </si>
+  <si>
+    <t>WARNING: THREAT STILL DETECTED.</t>
+  </si>
+  <si>
+    <t>ANALYSIS: ENTITIES WITH PHYSICAL RESISTANCE DETECTED. USE OF ELEMENTAL ATTRIBUTES SUGGESTED.</t>
+  </si>
+  <si>
+    <t>ADVICE: UTILIZE ELEMENTAL SPELL PREFIXES.</t>
+  </si>
+  <si>
+    <t>I recommend casting AGNI-SWORD. Press SPACEBAR to insert a dash "-" between words to connect them.</t>
+  </si>
+  <si>
+    <t>agni</t>
+  </si>
+  <si>
+    <t>Be sure to search for more elemental prefixes!</t>
+  </si>
+  <si>
+    <t>EMERGENCY: POWERFUL ENEMY DETECTED. CANNOT COMPREHEND TRUE FORM.</t>
+  </si>
+  <si>
+    <t>spr_vn_diagram_1</t>
+  </si>
+  <si>
+    <t>. . . Be careful.</t>
+  </si>
+  <si>
+    <t>AGNI is the official TYPOCRYPHA prefix for Fire type Spells. There exists other element prefixes like it. . .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,26 +1072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="3" max="3" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1107,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1130,13 +1142,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,13 +1165,13 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1190,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1213,13 +1225,13 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,13 +1262,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1270,13 +1282,13 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1293,13 +1305,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -1322,7 +1334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1330,167 +1342,167 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1518,609 +1530,678 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B82" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>54</v>
-      </c>
-      <c r="G83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
